--- a/data/stat probs/kendall brown stat probs - condition.xlsx
+++ b/data/stat probs/kendall brown stat probs - condition.xlsx
@@ -29,22 +29,20 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 full" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utah 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utah 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 full" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 full" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 full" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40 after 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40 after 2023 full" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utah 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utah 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lac 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 before 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 full" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40 after 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40 after 2023 full" sheetId="36" state="visible" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,22 +523,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1077,22 +1075,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1335,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1593,22 +1591,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1851,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2109,22 +2107,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2367,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2723,22 +2721,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3212,7 +3210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3275,16 +3273,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3307,27 +3305,123 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3342,7 +3436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3405,16 +3499,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3437,27 +3531,123 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3535,16 +3725,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3761,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3924,7 +4114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3999,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4019,123 +4209,27 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4150,7 +4244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4225,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4245,123 +4339,27 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4451,10 +4449,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4569,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -4743,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4873,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5003,10 +5001,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5058,7 +5056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5121,10 +5119,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -5153,10 +5151,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5165,15 +5163,47 @@
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5188,7 +5218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5251,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -5283,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5295,15 +5325,47 @@
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5381,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -5543,334 +5605,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -6029,10 +5767,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -6191,22 +5929,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6449,22 +6187,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6707,10 +6445,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -6869,10 +6607,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
